--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1458113333333333</v>
+        <v>0.02185066666666667</v>
       </c>
       <c r="H2">
-        <v>0.437434</v>
+        <v>0.065552</v>
       </c>
       <c r="I2">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="J2">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.03851499999999</v>
+        <v>19.741419</v>
       </c>
       <c r="N2">
-        <v>243.115545</v>
+        <v>59.224257</v>
       </c>
       <c r="O2">
-        <v>0.8313546010859307</v>
+        <v>0.5456357702458839</v>
       </c>
       <c r="P2">
-        <v>0.8313546010859306</v>
+        <v>0.5456357702458838</v>
       </c>
       <c r="Q2">
-        <v>11.81633392350333</v>
+        <v>0.431363166096</v>
       </c>
       <c r="R2">
-        <v>106.34700531153</v>
+        <v>3.882268494864</v>
       </c>
       <c r="S2">
-        <v>0.1255876472132964</v>
+        <v>0.01417204881797942</v>
       </c>
       <c r="T2">
-        <v>0.1255876472132964</v>
+        <v>0.01417204881797942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1458113333333333</v>
+        <v>0.02185066666666667</v>
       </c>
       <c r="H3">
-        <v>0.437434</v>
+        <v>0.065552</v>
       </c>
       <c r="I3">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="J3">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.646025</v>
       </c>
       <c r="O3">
-        <v>0.1321534198787326</v>
+        <v>0.3560475839792585</v>
       </c>
       <c r="P3">
-        <v>0.1321534198787326</v>
+        <v>0.3560475839792585</v>
       </c>
       <c r="Q3">
-        <v>1.878342811094445</v>
+        <v>0.2814804700888889</v>
       </c>
       <c r="R3">
-        <v>16.90508529985</v>
+        <v>2.5333242308</v>
       </c>
       <c r="S3">
-        <v>0.01996360764958997</v>
+        <v>0.009247787657696627</v>
       </c>
       <c r="T3">
-        <v>0.01996360764958997</v>
+        <v>0.009247787657696627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1458113333333333</v>
+        <v>0.02185066666666667</v>
       </c>
       <c r="H4">
-        <v>0.437434</v>
+        <v>0.065552</v>
       </c>
       <c r="I4">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="J4">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.67146</v>
       </c>
       <c r="O4">
-        <v>0.03649197903533675</v>
+        <v>0.09831664577485776</v>
       </c>
       <c r="P4">
-        <v>0.03649197903533674</v>
+        <v>0.09831664577485774</v>
       </c>
       <c r="Q4">
-        <v>0.5186732704044446</v>
+        <v>0.07772617176888889</v>
       </c>
       <c r="R4">
-        <v>4.668059433640001</v>
+        <v>0.69953554592</v>
       </c>
       <c r="S4">
-        <v>0.005512619745194839</v>
+        <v>0.002553623460048045</v>
       </c>
       <c r="T4">
-        <v>0.005512619745194838</v>
+        <v>0.002553623460048044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.74304</v>
       </c>
       <c r="I5">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="J5">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.03851499999999</v>
+        <v>19.741419</v>
       </c>
       <c r="N5">
-        <v>243.115545</v>
+        <v>59.224257</v>
       </c>
       <c r="O5">
-        <v>0.8313546010859307</v>
+        <v>0.5456357702458839</v>
       </c>
       <c r="P5">
-        <v>0.8313546010859306</v>
+        <v>0.5456357702458838</v>
       </c>
       <c r="Q5">
-        <v>47.08445772853332</v>
+        <v>11.47002765792</v>
       </c>
       <c r="R5">
-        <v>423.7601195567999</v>
+        <v>103.23024892128</v>
       </c>
       <c r="S5">
-        <v>0.5004281619596651</v>
+        <v>0.3768374415988963</v>
       </c>
       <c r="T5">
-        <v>0.500428161959665</v>
+        <v>0.3768374415988962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.74304</v>
       </c>
       <c r="I6">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="J6">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>38.646025</v>
       </c>
       <c r="O6">
-        <v>0.1321534198787326</v>
+        <v>0.3560475839792585</v>
       </c>
       <c r="P6">
-        <v>0.1321534198787326</v>
+        <v>0.3560475839792585</v>
       </c>
       <c r="Q6">
         <v>7.484618601777777</v>
@@ -818,10 +818,10 @@
         <v>67.361567416</v>
       </c>
       <c r="S6">
-        <v>0.07954883863060778</v>
+        <v>0.2459004118695315</v>
       </c>
       <c r="T6">
-        <v>0.07954883863060778</v>
+        <v>0.2459004118695315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.74304</v>
       </c>
       <c r="I7">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="J7">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>10.67146</v>
       </c>
       <c r="O7">
-        <v>0.03649197903533675</v>
+        <v>0.09831664577485776</v>
       </c>
       <c r="P7">
-        <v>0.03649197903533674</v>
+        <v>0.09831664577485774</v>
       </c>
       <c r="Q7">
         <v>2.066753515377778</v>
@@ -880,10 +880,10 @@
         <v>18.6007816384</v>
       </c>
       <c r="S7">
-        <v>0.02196609481810835</v>
+        <v>0.06790132773679131</v>
       </c>
       <c r="T7">
-        <v>0.02196609481810835</v>
+        <v>0.06790132773679131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.7152149999999999</v>
       </c>
       <c r="I8">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="J8">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.03851499999999</v>
+        <v>19.741419</v>
       </c>
       <c r="N8">
-        <v>243.115545</v>
+        <v>59.224257</v>
       </c>
       <c r="O8">
-        <v>0.8313546010859307</v>
+        <v>0.5456357702458839</v>
       </c>
       <c r="P8">
-        <v>0.8313546010859306</v>
+        <v>0.5456357702458838</v>
       </c>
       <c r="Q8">
-        <v>19.319987168575</v>
+        <v>4.706452996695</v>
       </c>
       <c r="R8">
-        <v>173.879884517175</v>
+        <v>42.358076970255</v>
       </c>
       <c r="S8">
-        <v>0.2053387919129692</v>
+        <v>0.1546262798290083</v>
       </c>
       <c r="T8">
-        <v>0.2053387919129692</v>
+        <v>0.1546262798290082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.7152149999999999</v>
       </c>
       <c r="I9">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="J9">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>38.646025</v>
       </c>
       <c r="O9">
-        <v>0.1321534198787326</v>
+        <v>0.3560475839792585</v>
       </c>
       <c r="P9">
-        <v>0.1321534198787326</v>
+        <v>0.3560475839792585</v>
       </c>
       <c r="Q9">
         <v>3.071135196708333</v>
@@ -1004,10 +1004,10 @@
         <v>27.640216770375</v>
       </c>
       <c r="S9">
-        <v>0.03264097359853483</v>
+        <v>0.1008993844520303</v>
       </c>
       <c r="T9">
-        <v>0.03264097359853483</v>
+        <v>0.1008993844520303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.7152149999999999</v>
       </c>
       <c r="I10">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="J10">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>10.67146</v>
       </c>
       <c r="O10">
-        <v>0.03649197903533675</v>
+        <v>0.09831664577485776</v>
       </c>
       <c r="P10">
-        <v>0.03649197903533674</v>
+        <v>0.09831664577485774</v>
       </c>
       <c r="Q10">
         <v>0.8480431404333333</v>
@@ -1066,10 +1066,10 @@
         <v>7.632388263899999</v>
       </c>
       <c r="S10">
-        <v>0.009013264472033555</v>
+        <v>0.0278616945780184</v>
       </c>
       <c r="T10">
-        <v>0.009013264472033553</v>
+        <v>0.0278616945780184</v>
       </c>
     </row>
   </sheetData>
